--- a/data/studies_2023-11-24_LSR3_H.xlsx
+++ b/data/studies_2023-11-24_LSR3_H.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DB-RCT single/multiple ascending dose (phase 1)</t>
+          <t>DB-RCT single ascending dose (phase 1)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ralmitaront, placebo</t>
+          <t>RO5263397, placebo</t>
         </is>
       </c>
       <c r="H2">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Efficacy</t>
+          <t>Efficacy, dropouts</t>
         </is>
       </c>
       <c r="O11">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Efficacy</t>
+          <t>Efficacy, dropouts</t>
         </is>
       </c>
       <c r="O19">
